--- a/file/template/overtime.xlsx
+++ b/file/template/overtime.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>SURAT PERINTAH LEMBUR</t>
   </si>
   <si>
-    <t>LINE / POS</t>
-  </si>
-  <si>
-    <t>SHIFT</t>
-  </si>
-  <si>
-    <t>DEPT.</t>
-  </si>
-  <si>
-    <t>HARI / TANGGAL</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -74,18 +59,6 @@
     <t>SP</t>
   </si>
   <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>Aktivitas Training</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>Safety Officer</t>
-  </si>
-  <si>
     <t>SOD</t>
   </si>
   <si>
@@ -135,16 +108,28 @@
   </si>
   <si>
     <t>PRODUKSI</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>SECTION</t>
+  </si>
+  <si>
+    <t>DEPT</t>
+  </si>
+  <si>
+    <t>DEPT ADMINISTRATIF</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$]dddd\,\ dd\-mmm\-yyyy;@" x16r2:formatCode16="[$-ID-US]dddd\,\ dd\-mmm\-yyyy;@"/>
-  </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,17 +158,6 @@
       <b/>
       <sz val="18"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
@@ -218,7 +192,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="9"/>
+      <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -232,18 +206,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -511,12 +485,42 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,15 +528,41 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -540,122 +570,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,131 +596,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -888,7 +795,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>557832</xdr:colOff>
+      <xdr:colOff>333714</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>496261</xdr:rowOff>
     </xdr:to>
@@ -932,25 +839,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="updateMP BOdy 1 &amp; 2"/>
-      <sheetName val="Master HOT"/>
-      <sheetName val="Master DOT jalur"/>
-      <sheetName val="Sheet4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1216,46 +1104,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD116"/>
+  <dimension ref="A1:W114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10:W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="0.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="1.140625" customWidth="1"/>
-    <col min="17" max="17" width="3" customWidth="1"/>
-    <col min="18" max="24" width="28.28515625" customWidth="1"/>
+    <col min="3" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" customWidth="1"/>
+    <col min="18" max="18" width="1.140625" customWidth="1"/>
+    <col min="19" max="42" width="24.140625" customWidth="1"/>
+    <col min="43" max="45" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="12"/>
     </row>
-    <row r="2" spans="1:17" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1271,299 +1157,281 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="30"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="55">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="13">
         <v>2022</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="30"/>
+      <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="30"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="38" t="s">
+    <row r="5" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="36" t="s">
+      <c r="D10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="V10" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="31"/>
+      <c r="W10" s="46" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="31"/>
+    <row r="11" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
     </row>
-    <row r="7" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="31"/>
-    </row>
-    <row r="8" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="31"/>
-    </row>
-    <row r="9" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="31"/>
-    </row>
-    <row r="10" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="31"/>
-    </row>
-    <row r="11" spans="1:17" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="30"/>
-    </row>
-    <row r="12" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="32"/>
-    </row>
-    <row r="13" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="32"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15" x14ac:dyDescent="0.25"/>
@@ -1662,36 +1530,37 @@
     <row r="112" ht="15" x14ac:dyDescent="0.25"/>
     <row r="113" ht="15" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="I12:N13"/>
+  <mergeCells count="24">
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="C3:P3"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="K10:P11"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4 D1:D2 D11">
+  <conditionalFormatting sqref="D9 D4 D1:D2">
     <cfRule type="duplicateValues" dxfId="5" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 D11">
+  <conditionalFormatting sqref="D9 D4">
     <cfRule type="duplicateValues" dxfId="4" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
@@ -1700,10 +1569,10 @@
   <conditionalFormatting sqref="D4">
     <cfRule type="duplicateValues" dxfId="2" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 D1:D2 D11:D12">
+  <conditionalFormatting sqref="D9:D10 D4 D1:D2">
     <cfRule type="duplicateValues" dxfId="1" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D2 D4 D11:D12">
+  <conditionalFormatting sqref="D9:D10 D1:D2 D4">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
